--- a/Original/Tables/NewTU_BuildingClasses_ORG.xlsx
+++ b/Original/Tables/NewTU_BuildingClasses_ORG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="445">
   <si>
     <t>ID</t>
   </si>
@@ -78,15 +78,9 @@
     <t>text</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>primarykey</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>autoincrement</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>BUILDINGCLASS_COURTHOUSE</t>
@@ -1807,18 +1798,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1829,9 +1820,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1864,1119 +1852,1111 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>274</v>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>270</v>
+        <v>304</v>
+      </c>
+      <c r="H54" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H61" s="5">
-        <v>5</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E77" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>423</v>
+    <row r="72" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H79" s="6">
         <v>1</v>
@@ -2984,16 +2964,16 @@
     </row>
     <row r="80" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H80" s="6">
         <v>1</v>
@@ -3001,16 +2981,16 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="H81" s="6">
         <v>1</v>
@@ -3018,16 +2998,16 @@
     </row>
     <row r="82" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="H82" s="6">
         <v>1</v>
@@ -3035,16 +3015,16 @@
     </row>
     <row r="83" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>169</v>
+        <v>381</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="H83" s="6">
         <v>1</v>
@@ -3052,16 +3032,16 @@
     </row>
     <row r="84" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>172</v>
+        <v>384</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>173</v>
+        <v>385</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="H84" s="6">
         <v>1</v>
@@ -3069,16 +3049,16 @@
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>175</v>
+        <v>387</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="H85" s="6">
         <v>1</v>
@@ -3086,16 +3066,16 @@
     </row>
     <row r="86" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>179</v>
+        <v>391</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>180</v>
+        <v>392</v>
       </c>
       <c r="H86" s="6">
         <v>1</v>
@@ -3103,16 +3083,16 @@
     </row>
     <row r="87" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>181</v>
+        <v>393</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>182</v>
+        <v>394</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>183</v>
+        <v>395</v>
       </c>
       <c r="H87" s="6">
         <v>1</v>
@@ -3120,16 +3100,16 @@
     </row>
     <row r="88" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="H88" s="6">
         <v>1</v>
@@ -3137,16 +3117,16 @@
     </row>
     <row r="89" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="H89" s="6">
         <v>1</v>
@@ -3154,16 +3134,16 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="H90" s="6">
         <v>1</v>
@@ -3171,16 +3151,16 @@
     </row>
     <row r="91" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -3188,356 +3168,356 @@
     </row>
     <row r="92" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="H94" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H95" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="H96" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H97" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H98" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="H99" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -3545,16 +3525,16 @@
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -3562,16 +3542,16 @@
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -3579,16 +3559,16 @@
     </row>
     <row r="115" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -3596,16 +3576,16 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -3613,16 +3593,16 @@
     </row>
     <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -3630,16 +3610,16 @@
     </row>
     <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -3647,16 +3627,16 @@
     </row>
     <row r="119" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -3664,16 +3644,16 @@
     </row>
     <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -3681,16 +3661,16 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -3698,16 +3678,16 @@
     </row>
     <row r="122" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -3715,16 +3695,16 @@
     </row>
     <row r="123" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -3732,16 +3712,16 @@
     </row>
     <row r="124" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -3749,16 +3729,16 @@
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -3766,16 +3746,16 @@
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="F126" s="4">
         <v>1</v>
@@ -3783,16 +3763,16 @@
     </row>
     <row r="127" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -3800,16 +3780,16 @@
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -3817,16 +3797,16 @@
     </row>
     <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -3834,16 +3814,16 @@
     </row>
     <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="F130" s="4">
         <v>1</v>
@@ -3851,16 +3831,16 @@
     </row>
     <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -3868,16 +3848,16 @@
     </row>
     <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -3885,16 +3865,16 @@
     </row>
     <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -3902,16 +3882,16 @@
     </row>
     <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>334</v>
+        <v>426</v>
       </c>
       <c r="F134" s="4">
         <v>1</v>
@@ -3919,16 +3899,16 @@
     </row>
     <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -3936,16 +3916,16 @@
     </row>
     <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -3953,16 +3933,16 @@
     </row>
     <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>343</v>
+        <v>435</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -3970,16 +3950,16 @@
     </row>
     <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -3987,154 +3967,35 @@
     </row>
     <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F140" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F141" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F143" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C146" s="4" t="s">
+    <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D140" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E140" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="F146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="F147" s="17">
+      <c r="F140" s="17">
         <v>1</v>
       </c>
     </row>
@@ -4176,16 +4037,16 @@
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4204,38 +4065,38 @@
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Original/Tables/NewTU_BuildingClasses_ORG.xlsx
+++ b/Original/Tables/NewTU_BuildingClasses_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingClasses" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="432">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Threshold</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>BUILDINGCLASS_COURTHOUSE</t>
@@ -1426,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1443,6 +1440,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1732,11 +1732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C140"/>
+      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1788,733 +1788,733 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="H54" s="5">
         <v>5</v>
@@ -2522,254 +2522,254 @@
     </row>
     <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="H72" s="6">
         <v>1</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="73" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H73" s="6">
         <v>1</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="74" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="75" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H75" s="6">
         <v>1</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="76" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="H76" s="6">
         <v>1</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="77" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H77" s="6">
         <v>1</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="78" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H78" s="6">
         <v>1</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H79" s="6">
         <v>1</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="80" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="H80" s="6">
         <v>1</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="H81" s="6">
         <v>1</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="82" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="H82" s="6">
         <v>1</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="83" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="H83" s="6">
         <v>1</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="84" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="H84" s="6">
         <v>1</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="H85" s="6">
         <v>1</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="86" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="H86" s="6">
         <v>1</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="87" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="H87" s="6">
         <v>1</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="88" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H88" s="6">
         <v>1</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="89" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="H89" s="6">
         <v>1</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="H90" s="6">
         <v>1</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="91" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="92" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="97" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="106" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="115" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="119" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="122" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="123" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="124" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="E125" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="F126" s="4">
         <v>1</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="127" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="E130" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="F130" s="4">
         <v>1</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="F134" s="4">
         <v>1</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="E135" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="140" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C140" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="E140" s="13" t="s">
         <v>431</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>432</v>
       </c>
       <c r="F140" s="13">
         <v>1</v>
@@ -3938,724 +3938,722 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="3" customWidth="1"/>
-    <col min="2" max="4" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Original/Tables/NewTU_BuildingClasses_ORG.xlsx
+++ b/Original/Tables/NewTU_BuildingClasses_ORG.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="377">
   <si>
     <t>ID</t>
   </si>
@@ -777,15 +777,6 @@
     <t>TXT_KEY_BUILDING_PENTAGON</t>
   </si>
   <si>
-    <t>BUILDINGCLASS_UNITED_NATIONS</t>
-  </si>
-  <si>
-    <t>BUILDING_UNITED_NATIONS</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_UNITED_NATIONS</t>
-  </si>
-  <si>
     <t>BUILDINGCLASS_SYDNEY_OPERA_HOUSE</t>
   </si>
   <si>
@@ -1027,162 +1018,6 @@
   </si>
   <si>
     <t>TXT_KEY_BUILDING_GREAT_FIREWALL</t>
-  </si>
-  <si>
-    <t>GNKS</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_DIFFERENCE_ENGINE</t>
-  </si>
-  <si>
-    <t>BUILDING_DIFFERENCE_ENGINE</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_DIFFERENCE_ENGINE</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_GRAND_MANSION</t>
-  </si>
-  <si>
-    <t>BUILDING_GRAND_MANSION</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_GRAND_MANSION</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_TRADE_COLLEGE</t>
-  </si>
-  <si>
-    <t>BUILDING_TRADE_COLLEGE</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_TRADE_COLLEGE</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_PATENT_OFFICE</t>
-  </si>
-  <si>
-    <t>BUILDING_PATENT_OFFICE</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_PATENT_OFFICE</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_LUBORIC_REFINERY</t>
-  </si>
-  <si>
-    <t>BUILDING_LUBORIC_REFINERY</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_LUBORIC_REFINERY</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_PHILANTHROPORIUM</t>
-  </si>
-  <si>
-    <t>BUILDING_PHILANTHROPORIUM</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_PHILANTHROPORIUM</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_TESLA_COIL</t>
-  </si>
-  <si>
-    <t>BUILDING_TESLA_COIL</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_TESLA_COIL</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_AETHERIUM_FABRICATOR</t>
-  </si>
-  <si>
-    <t>BUILDING_AETHERIUM_FABRICATOR</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_AETHERIUM_FABRICATOR</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_AIRSHIP_HANGAR</t>
-  </si>
-  <si>
-    <t>BUILDING_AIRSHIP_HANGAR</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_AIRSHIP_HANGAR</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_AUTOMATED_FACTORY</t>
-  </si>
-  <si>
-    <t>BUILDING_AUTOMATED_FACTORY</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_AUTOMATED_FACTORY</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_SUBTERRANEAN_OUTPOST</t>
-  </si>
-  <si>
-    <t>BUILDING_SUBTERRANEAN_OUTPOST</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_SUBTERRANEAN_OUTPOST</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_ANALYTICAL_ENGINE</t>
-  </si>
-  <si>
-    <t>BUILDING_ANALYTICAL_ENGINE</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_ANALYTICAL_ENGINE</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_BILTMORE_HOUSE</t>
-  </si>
-  <si>
-    <t>BUILDING_BILTMORE_HOUSE</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_BILTMORE_HOUSE</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_INVENTORS_HALL</t>
-  </si>
-  <si>
-    <t>BUILDING_INVENTORS_HALL</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_INVENTORS_HALL</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_CARNEGIE_HALL</t>
-  </si>
-  <si>
-    <t>BUILDING_CARNEGIE_HALL</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_CARNEGIE_HALL</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_SUBTERRANEAN_COLONY</t>
-  </si>
-  <si>
-    <t>BUILDING_SUBTERRANEAN_COLONY</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_SUBTERRANEAN_COLONY</t>
-  </si>
-  <si>
-    <t>BUILDINGCLASS_PERPETUAL_MOTION_ENGINE</t>
-  </si>
-  <si>
-    <t>BUILDING_PERPETUAL_MOTION_ENGINE</t>
-  </si>
-  <si>
-    <t>TXT_KEY_BUILDING_PERPETUAL_MOTION_ENGINE</t>
   </si>
   <si>
     <t>BNW</t>
@@ -1730,13 +1565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
+      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1623,7 @@
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1805,7 +1640,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1819,7 +1654,7 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1833,7 +1668,7 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -1847,7 +1682,7 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>25</v>
@@ -1861,7 +1696,7 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>28</v>
@@ -1875,7 +1710,7 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
@@ -1889,7 +1724,7 @@
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>34</v>
@@ -1903,7 +1738,7 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -1917,7 +1752,7 @@
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>40</v>
@@ -1931,7 +1766,7 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>43</v>
@@ -1945,7 +1780,7 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>46</v>
@@ -1959,7 +1794,7 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>49</v>
@@ -1973,7 +1808,7 @@
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>52</v>
@@ -1987,7 +1822,7 @@
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>55</v>
@@ -2001,7 +1836,7 @@
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>58</v>
@@ -2015,7 +1850,7 @@
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>61</v>
@@ -2029,7 +1864,7 @@
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>64</v>
@@ -2043,7 +1878,7 @@
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>67</v>
@@ -2057,7 +1892,7 @@
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>70</v>
@@ -2071,7 +1906,7 @@
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>73</v>
@@ -2085,7 +1920,7 @@
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>76</v>
@@ -2099,7 +1934,7 @@
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>79</v>
@@ -2113,7 +1948,7 @@
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>82</v>
@@ -2127,7 +1962,7 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>85</v>
@@ -2141,7 +1976,7 @@
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>88</v>
@@ -2155,7 +1990,7 @@
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>91</v>
@@ -2169,7 +2004,7 @@
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>94</v>
@@ -2183,7 +2018,7 @@
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>97</v>
@@ -2197,7 +2032,7 @@
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>100</v>
@@ -2211,7 +2046,7 @@
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>103</v>
@@ -2225,7 +2060,7 @@
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>106</v>
@@ -2239,7 +2074,7 @@
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>109</v>
@@ -2253,7 +2088,7 @@
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>112</v>
@@ -2267,7 +2102,7 @@
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>115</v>
@@ -2281,7 +2116,7 @@
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>118</v>
@@ -2295,7 +2130,7 @@
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>121</v>
@@ -2309,7 +2144,7 @@
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>124</v>
@@ -2323,7 +2158,7 @@
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>127</v>
@@ -2337,7 +2172,7 @@
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>130</v>
@@ -2351,7 +2186,7 @@
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>133</v>
@@ -2365,7 +2200,7 @@
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>136</v>
@@ -2379,7 +2214,7 @@
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>139</v>
@@ -2393,7 +2228,7 @@
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>142</v>
@@ -2407,114 +2242,114 @@
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H54" s="5">
         <v>5</v>
@@ -2522,254 +2357,287 @@
     </row>
     <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E63" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>407</v>
+    <row r="61" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="H72" s="6">
         <v>1</v>
@@ -2777,16 +2645,16 @@
     </row>
     <row r="73" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="H73" s="6">
         <v>1</v>
@@ -2794,16 +2662,16 @@
     </row>
     <row r="74" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
@@ -2811,373 +2679,373 @@
     </row>
     <row r="75" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>155</v>
+        <v>342</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="H75" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H79" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H80" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H81" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H82" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="H83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="H84" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="H85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H86" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="H88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H89" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H90" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H91" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="H92" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -3185,16 +3053,16 @@
     </row>
     <row r="97" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -3202,16 +3070,16 @@
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -3219,16 +3087,16 @@
     </row>
     <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -3236,16 +3104,16 @@
     </row>
     <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -3253,16 +3121,16 @@
     </row>
     <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -3270,16 +3138,16 @@
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -3287,16 +3155,16 @@
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -3304,16 +3172,16 @@
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
@@ -3321,16 +3189,16 @@
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -3338,16 +3206,16 @@
     </row>
     <row r="106" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -3355,16 +3223,16 @@
     </row>
     <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -3372,16 +3240,16 @@
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -3389,16 +3257,16 @@
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -3406,16 +3274,16 @@
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -3423,16 +3291,16 @@
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -3440,16 +3308,16 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -3457,16 +3325,16 @@
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -3474,16 +3342,16 @@
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -3491,16 +3359,16 @@
     </row>
     <row r="115" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>239</v>
+        <v>354</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -3508,16 +3376,16 @@
     </row>
     <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -3525,16 +3393,16 @@
     </row>
     <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -3542,16 +3410,16 @@
     </row>
     <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>248</v>
+        <v>363</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -3559,16 +3427,16 @@
     </row>
     <row r="119" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>250</v>
+        <v>365</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -3576,16 +3444,16 @@
     </row>
     <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -3593,341 +3461,35 @@
     </row>
     <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F123" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F125" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F127" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F131" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C132" s="4" t="s">
+    <row r="122" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F135" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F139" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="F140" s="13">
+      <c r="C122" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F122" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3938,13 +3500,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4188,472 +3750,382 @@
     </row>
     <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>344</v>
+      <c r="A61" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>347</v>
+      <c r="A62" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>350</v>
+      <c r="A63" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>353</v>
+      <c r="A64" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>356</v>
+      <c r="A65" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>359</v>
+      <c r="A66" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>362</v>
+      <c r="A67" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>365</v>
+      <c r="A68" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>399</v>
+      <c r="A69" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>402</v>
+      <c r="A70" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>405</v>
+      <c r="A71" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>157</v>
+      <c r="A76" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>160</v>
+      <c r="A77" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>163</v>
+      <c r="A78" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>166</v>
+      <c r="A79" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>169</v>
+      <c r="A80" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>301</v>
+      <c r="A81" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>304</v>
+      <c r="A82" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>368</v>
+      <c r="A83" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>371</v>
+      <c r="A84" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>374</v>
+      <c r="A85" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>377</v>
+      <c r="A86" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>380</v>
+      <c r="A87" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>383</v>
+      <c r="A88" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>387</v>
+      <c r="A89" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>390</v>
+      <c r="A90" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>393</v>
+      <c r="A91" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>396</v>
+      <c r="A92" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>250</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>253</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
-        <v>429</v>
+      <c r="A122" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
